--- a/excel/1/data.xlsx
+++ b/excel/1/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="535">
   <si>
     <t>Open</t>
   </si>
@@ -1599,6 +1599,36 @@
   </si>
   <si>
     <t>Close</t>
+  </si>
+  <si>
+    <t>P_Open</t>
+  </si>
+  <si>
+    <t>P_High</t>
+  </si>
+  <si>
+    <t>P_Low</t>
+  </si>
+  <si>
+    <t>P_Close</t>
+  </si>
+  <si>
+    <t>P_High+Low</t>
+  </si>
+  <si>
+    <t>P_Change</t>
+  </si>
+  <si>
+    <t>P_4_Price</t>
+  </si>
+  <si>
+    <t>P_Close-High</t>
+  </si>
+  <si>
+    <t>P_High-Low</t>
+  </si>
+  <si>
+    <t>Action</t>
   </si>
 </sst>
 </file>
@@ -1920,10 +1950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G520"/>
+  <dimension ref="A1:P520"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1931,7 +1961,7 @@
     <col min="1" max="16384" width="17.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>523</v>
       </c>
@@ -1950,8 +1980,38 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1972,7 +2032,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1993,7 +2053,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2014,7 +2074,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2035,7 +2095,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2056,7 +2116,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2077,7 +2137,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -2098,7 +2158,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -2119,7 +2179,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -2140,7 +2200,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -2161,7 +2221,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2182,7 +2242,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2203,7 +2263,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2224,7 +2284,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -2245,7 +2305,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
